--- a/微震开发/财务/资金流.xlsx
+++ b/微震开发/财务/资金流.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>卢安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -112,6 +108,18 @@
   </si>
   <si>
     <t>阿里云服务器1个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安出资第一笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成出资第一笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H9"/>
+  <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -495,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -503,7 +511,7 @@
         <v>20171108</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -521,16 +529,16 @@
         <v>20171107</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f>F3+D4-E4</f>
+        <f t="shared" ref="F4:F10" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -539,16 +547,16 @@
         <v>20171108</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>270.5</v>
       </c>
       <c r="F5">
-        <f>F4+D5-E5</f>
+        <f t="shared" si="0"/>
         <v>49309</v>
       </c>
     </row>
@@ -557,16 +565,16 @@
         <v>20171117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>427.5</v>
       </c>
       <c r="F6">
-        <f>F5+D6-E6</f>
+        <f t="shared" si="0"/>
         <v>48881.5</v>
       </c>
     </row>
@@ -575,20 +583,20 @@
         <v>20171109</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>565</v>
       </c>
       <c r="F7">
-        <f>F6+D7-E7</f>
+        <f t="shared" si="0"/>
         <v>48316.5</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>82.09</v>
@@ -599,16 +607,16 @@
         <v>20171110</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>285</v>
       </c>
       <c r="F8">
-        <f>F7+D8-E8</f>
+        <f t="shared" si="0"/>
         <v>48031.5</v>
       </c>
     </row>
@@ -617,7 +625,7 @@
         <v>20171115</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -626,8 +634,26 @@
         <v>130.69999999999999</v>
       </c>
       <c r="F9">
-        <f>F8+D9-E9</f>
+        <f t="shared" si="0"/>
         <v>47900.800000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>20171117</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>10000</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>57900.800000000003</v>
       </c>
     </row>
   </sheetData>

--- a/微震开发/财务/资金流.xlsx
+++ b/微震开发/财务/资金流.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,15 +111,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卢安出资第一笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马成出资第一笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>马成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成出资第2笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成出资第1笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安出资第1笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成出资第3笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成出资第4笔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H10"/>
+  <dimension ref="A2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -511,7 +523,7 @@
         <v>20171108</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -538,7 +550,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F10" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F13" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -643,10 +655,10 @@
         <v>20171117</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>10000</v>
@@ -654,6 +666,60 @@
       <c r="F10">
         <f t="shared" si="0"/>
         <v>57900.800000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>20171123</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>5000</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>62900.800000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>20171124</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>5000</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>67900.800000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>20171125</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>5000</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>72900.800000000003</v>
       </c>
     </row>
   </sheetData>

--- a/微震开发/财务/资金流.xlsx
+++ b/微震开发/财务/资金流.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>马成出资第4笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成出资第5笔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H13"/>
+  <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -550,7 +554,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F13" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F14" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -720,6 +724,24 @@
       <c r="F13">
         <f t="shared" si="0"/>
         <v>72900.800000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>20171127</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>5000</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>77900.800000000003</v>
       </c>
     </row>
   </sheetData>

--- a/微震开发/财务/资金流.xlsx
+++ b/微震开发/财务/资金流.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,14 @@
   </si>
   <si>
     <t>马成出资第5笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付购买线缆和器件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H14"/>
+  <dimension ref="A2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -554,7 +562,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F14" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F15" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -742,6 +750,24 @@
       <c r="F14">
         <f t="shared" si="0"/>
         <v>77900.800000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>20171207</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>888.6</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>77012.2</v>
       </c>
     </row>
   </sheetData>

--- a/微震开发/财务/资金流.xlsx
+++ b/微震开发/财务/资金流.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>马成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王旭东出资第1笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王旭东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马成出资第6笔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H15"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -562,7 +574,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F15" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F17" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -768,6 +780,42 @@
       <c r="F15">
         <f t="shared" si="0"/>
         <v>77012.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>20171215</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>100000</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>177012.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>20171218</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>120000</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>297012.2</v>
       </c>
     </row>
   </sheetData>

--- a/微震开发/财务/资金流.xlsx
+++ b/微震开发/财务/资金流.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,14 @@
   </si>
   <si>
     <t>马成出资第6笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安出资第2笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H17"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -574,7 +582,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F17" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F18" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -816,6 +824,24 @@
       <c r="F17">
         <f t="shared" si="0"/>
         <v>297012.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>20171220</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>100000</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>397012.2</v>
       </c>
     </row>
   </sheetData>

--- a/微震开发/财务/资金流.xlsx
+++ b/微震开发/财务/资金流.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,22 @@
   </si>
   <si>
     <t>卢安出资第2笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王旭东出资第2笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王旭东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存款利息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -510,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -582,7 +598,7 @@
         <v>420.5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F18" si="0">F3+D4-E4</f>
+        <f t="shared" ref="F4:F20" si="0">F3+D4-E4</f>
         <v>49579.5</v>
       </c>
     </row>
@@ -842,6 +858,42 @@
       <c r="F18">
         <f t="shared" si="0"/>
         <v>397012.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>20171220</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>100000</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>497012.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>20171221</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>29.82</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>497042.02</v>
       </c>
     </row>
   </sheetData>
